--- a/src/assets/file.xlsx
+++ b/src/assets/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D02632-8594-46C0-8D1C-39809A69A048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEFE768-7C97-4F93-94E4-D4F07976A5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B537E18-BFEC-4105-B7E1-69DDBD1D2CB5}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{4B537E18-BFEC-4105-B7E1-69DDBD1D2CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>time</t>
   </si>
@@ -60,16 +60,40 @@
     <t>CLOSED</t>
   </si>
   <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>01:45</t>
-  </si>
-  <si>
     <t>1234567</t>
   </si>
   <si>
     <t>xcvbxcv</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>10:58</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>11:04</t>
   </si>
 </sst>
 </file>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B2DEA4-993E-4173-B2BF-CD5E67AAE40A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +473,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -463,15 +487,127 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/assets/file.xlsx
+++ b/src/assets/file.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AlexApps\tracking-system\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEFE768-7C97-4F93-94E4-D4F07976A5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0813FAD4-850E-47F0-8602-175D1573A58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{4B537E18-BFEC-4105-B7E1-69DDBD1D2CB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B537E18-BFEC-4105-B7E1-69DDBD1D2CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>time</t>
   </si>
@@ -66,34 +57,31 @@
     <t>xcvbxcv</t>
   </si>
   <si>
-    <t>10:55</t>
-  </si>
-  <si>
-    <t>10:56</t>
-  </si>
-  <si>
-    <t>10:57</t>
-  </si>
-  <si>
-    <t>10:58</t>
-  </si>
-  <si>
-    <t>10:59</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:01</t>
-  </si>
-  <si>
-    <t>11:02</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>11:04</t>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>17:36</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>17:39</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>17:43</t>
   </si>
 </sst>
 </file>
@@ -449,7 +437,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +559,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -585,7 +573,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -599,7 +587,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
